--- a/cv32e40p/docs/VerifPlans/Simulation/xpulp_instruction_extensions/CV32E40P_xpulp-multiply-accumulate.xlsx
+++ b/cv32e40p/docs/VerifPlans/Simulation/xpulp_instruction_extensions/CV32E40P_xpulp-multiply-accumulate.xlsx
@@ -1,28 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dolphinintegrationfr.sharepoint.com/sites/PANTHER/Documents partages/General/CV32E40P/Verification/v2_VerifPlans/Simulation/instructions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Simulation - Copie\xpulp_instruction_extensions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="413" documentId="13_ncr:1_{77BD9441-CD70-491B-9FCD-5A8B36C6A8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{926D64A9-3DA5-4867-87F1-65892E228694}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306236DF-75B4-4135-9C61-5A9E045BF37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3705" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="5250" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Readme" sheetId="5" r:id="rId1"/>
+    <sheet name="ReadMe" sheetId="5" r:id="rId1"/>
     <sheet name="XPULP_MAC" sheetId="1" r:id="rId2"/>
     <sheet name="DONOTDELETE" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="152">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -194,10 +207,6 @@
     <t>cv.mulhhsRN     rD, rs1,  rs2, is3
 rD[31:0] = (Sext(rs1[31:16]) * Sext(rs2[31:16]) + 2^(Is3-1)) &gt;&gt;&gt; Is3
 Note: Arithmetic shift right.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RV32Xpulp MAC Operations
-16-Bit x 16-Bit Multiplication </t>
   </si>
   <si>
     <t>RV32Xpulp MAC Operations
@@ -303,37 +312,7 @@
 </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">This verification plan is </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>NOT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> intended to be considered complete nor standalone. </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">It is covering all the missing feature that formal verification was not able to verify for various reasons (complexity, run time, …) </t>
-  </si>
-  <si>
     <t xml:space="preserve">Please also refer to the corresponding Formal Verification Plans to have a complete view on what is verified. </t>
-  </si>
-  <si>
-    <t>CV32E40P User Manual - Chapter 18.5.1 MAC Operations</t>
   </si>
   <si>
     <t>Below are plans for CV32E40P v1</t>
@@ -668,6 +647,59 @@
   <si>
     <t>Limited coverage including testing with a variety of values in rD, rs1[31:16], and rs2[31:16], random values for ls3, and scenarios where rounding does and does not occur</t>
   </si>
+  <si>
+    <t>CG: RISCV_coverage_pkg.RISCV_coverage__1.INSTR_cg.cp_rs1
+CG: RISCV_coverage_pkg.RISCV_coverage__1.INSTR_cg.cp_gpr_hazard[RAW_HAZARD]
+CG: RISCV_coverage_pkg.RISCV_coverage__1.INSTR_cg.cp_rd</t>
+  </si>
+  <si>
+    <t>CG: RISCV_coverage_pkg.RISCV_coverage__1.INSTR_cg.cp_rd_toggle
+CG: RISCV_coverage_pkg.RISCV_coverage__1.INSTR_cg.cp_rs1_toggle</t>
+  </si>
+  <si>
+    <t>CG: RISCV_coverage_pkg.RISCV_coverage__1.INSTR_cg.cp_rs2</t>
+  </si>
+  <si>
+    <t>CG: RISCV_coverage_pkg.RISCV_coverage__1.INSTR_cg.cp_rs2_toggle</t>
+  </si>
+  <si>
+    <t>Related Test Program(s)</t>
+  </si>
+  <si>
+    <t>corev_rand_pulp_instr_test
+corev_rand_pulp_mac_instr_test
+pulp_multiply_accumulate</t>
+  </si>
+  <si>
+    <t>CV32E40P User Manual - Chapter 7.6.4 32-Bit x 32-Bit Multiply-Accumulate operations</t>
+  </si>
+  <si>
+    <t>RV32Xpulp MAC Operations
+16-Bit x 16-Bit Multiplication operations</t>
+  </si>
+  <si>
+    <t>CV32E40P User Manual - Chapter 7.6.1 16-Bit x 16-Bit Multiplication operations</t>
+  </si>
+  <si>
+    <t>CV32E40P User Manual - Chapter 7.6.3 16-Bit x 16-Bit Multiply-Accumulate operations</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some information in this verification plan are meant to be complementary to formal verification verification plans, in order to </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cover all the missing feature that formal verification was not able to verify for various reasons (complexity, run time, …) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle is not a requirement of CV32E40Pv2 verification, but the corresponding coverage from the Reference Model Coverage Package exists and is given for reference purposes only.
+Immediate toggle coverage is missing from Reference Model Coverage Package.
+</t>
+  </si>
+  <si>
+    <t>Toggle is not a requirement of CV32E40Pv2 verification, but the corresponding coverage from the Reference Model Coverage Package exists and is given for reference purposes only.</t>
+  </si>
 </sst>
 </file>
 
@@ -680,6 +712,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -710,12 +749,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -771,47 +804,35 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -825,12 +846,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -920,9 +957,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -960,7 +997,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1066,7 +1103,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1208,7 +1245,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1219,7 +1256,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,18 +1265,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>70</v>
+      <c r="A1" s="19" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>71</v>
+      <c r="A2" s="19" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>72</v>
+      <c r="A3" s="19" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1250,12 +1287,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,16 +1301,18 @@
     <col min="2" max="3" width="20.28515625" style="8" customWidth="1"/>
     <col min="4" max="4" width="51.28515625" style="9" customWidth="1"/>
     <col min="5" max="5" width="41.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="54.5703125" style="8" customWidth="1"/>
-    <col min="10" max="1023" width="17" style="8"/>
-    <col min="1024" max="1024" width="9.140625" style="8" customWidth="1"/>
-    <col min="1025" max="16384" width="17" style="8"/>
+    <col min="6" max="6" width="51.28515625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" style="8" customWidth="1"/>
+    <col min="10" max="10" width="77.140625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="67.85546875" style="8" customWidth="1"/>
+    <col min="12" max="1024" width="17" style="8"/>
+    <col min="1025" max="1025" width="9.140625" style="8" customWidth="1"/>
+    <col min="1026" max="16384" width="17" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1290,1336 +1329,1775 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="K1" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="20" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="17" t="str">
+        <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C2),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D2)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C2),".","_")),"")</f>
+        <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mac_cg.cp_rs1
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mac_cg.cp_gpr_hazard[RAW_HAZARD]
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mac_cg.cp_rd
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mac_cg.cp_rs2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="11" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="17" t="str">
+        <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C2),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D2)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C2),".","_")),"")</f>
+        <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mac_cg.cp_rd_toggle
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mac_cg.cp_rs1_toggle
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mac_cg.cp_rs2_toggle</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="20" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="17" t="str">
+        <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C4),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D4)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C4),".","_")),"")</f>
+        <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_msu_cg.cp_rs1
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_msu_cg.cp_gpr_hazard[RAW_HAZARD]
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_msu_cg.cp_rd
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_msu_cg.cp_rs2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="F5" s="20"/>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="17" t="str">
+        <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C4),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D4)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C4),".","_")),"")</f>
+        <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_msu_cg.cp_rd_toggle
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_msu_cg.cp_rs1_toggle
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_msu_cg.cp_rs2_toggle</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
+        <v>67</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="17" t="str">
+        <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C6),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D6)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C6),".","_")),"")</f>
+        <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulun_cg.cp_rs1
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulun_cg.cp_gpr_hazard[RAW_HAZARD]
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulun_cg.cp_rd
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulun_cg.cp_rs2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="11" t="s">
+      <c r="F7" s="20"/>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="17" t="str">
+        <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C6),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D6)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C6),".","_")),"")</f>
+        <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulun_cg.cp_rd_toggle
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulun_cg.cp_rs1_toggle
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulun_cg.cp_rs2_toggle</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
+        <v>67</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="17" t="str">
+        <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C8),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D8)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C8),".","_")),"")</f>
+        <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhun_cg.cp_rs1
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhun_cg.cp_gpr_hazard[RAW_HAZARD]
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhun_cg.cp_rd
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhun_cg.cp_rs2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="11" t="s">
+      <c r="F9" s="20"/>
+      <c r="G9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="17" t="str">
+        <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C8),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D8)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C8),".","_")),"")</f>
+        <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhun_cg.cp_rd_toggle
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhun_cg.cp_rs1_toggle
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhun_cg.cp_rs2_toggle</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="17" t="str">
+        <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C10),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D10)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C10),".","_")),"")</f>
+        <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulsn_cg.cp_rs1
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulsn_cg.cp_gpr_hazard[RAW_HAZARD]
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulsn_cg.cp_rd
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulsn_cg.cp_rs2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="11" t="s">
+      <c r="F11" s="20"/>
+      <c r="G11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="17" t="str">
+        <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C10),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D10)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C10),".","_")),"")</f>
+        <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulsn_cg.cp_rd_toggle
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulsn_cg.cp_rs1_toggle
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulsn_cg.cp_rs2_toggle</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="20" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
+        <v>67</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="17" t="str">
+        <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C12),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D12)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C12),".","_")),"")</f>
+        <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhsn_cg.cp_rs1
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhsn_cg.cp_gpr_hazard[RAW_HAZARD]
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhsn_cg.cp_rd
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhsn_cg.cp_rs2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="11" t="s">
+      <c r="F13" s="20"/>
+      <c r="G13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="17" t="str">
+        <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C12),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D12)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C12),".","_")),"")</f>
+        <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhsn_cg.cp_rd_toggle
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhsn_cg.cp_rs1_toggle
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhsn_cg.cp_rs2_toggle</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="20" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
+        <v>67</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="17" t="str">
+        <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C14),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D14)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C14),".","_")),"")</f>
+        <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulurn_cg.cp_rs1
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulurn_cg.cp_gpr_hazard[RAW_HAZARD]
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulurn_cg.cp_rd
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulurn_cg.cp_rs2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="11" t="s">
+      <c r="F15" s="20"/>
+      <c r="G15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="17" t="str">
+        <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C14),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D14)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C14),".","_")),"")</f>
+        <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulurn_cg.cp_rd_toggle
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulurn_cg.cp_rs1_toggle
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulurn_cg.cp_rs2_toggle</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="17" t="str">
+        <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C16),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D16)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C16),".","_")),"")</f>
+        <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhurn_cg.cp_rs1
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhurn_cg.cp_gpr_hazard[RAW_HAZARD]
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhurn_cg.cp_rd
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhurn_cg.cp_rs2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="11" t="s">
+      <c r="F17" s="20"/>
+      <c r="G17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="17" t="str">
+        <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C16),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D16)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C16),".","_")),"")</f>
+        <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhurn_cg.cp_rd_toggle
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhurn_cg.cp_rs1_toggle
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhurn_cg.cp_rs2_toggle</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="20" t="s">
         <v>45</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
+        <v>68</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="17" t="str">
+        <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C18),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D18)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C18),".","_")),"")</f>
+        <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulsrn_cg.cp_rs1
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulsrn_cg.cp_gpr_hazard[RAW_HAZARD]
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulsrn_cg.cp_rd
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulsrn_cg.cp_rs2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="11" t="s">
+      <c r="F19" s="20"/>
+      <c r="G19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="17" t="str">
+        <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C18),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D18)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C18),".","_")),"")</f>
+        <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulsrn_cg.cp_rd_toggle
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulsrn_cg.cp_rs1_toggle
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulsrn_cg.cp_rs2_toggle</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="20" t="s">
         <v>47</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="17" t="str">
+        <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C20),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D20)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C20),".","_")),"")</f>
+        <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhsrn_cg.cp_rs1
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhsrn_cg.cp_gpr_hazard[RAW_HAZARD]
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhsrn_cg.cp_rd
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhsrn_cg.cp_rs2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="12" t="s">
+      <c r="F21" s="20"/>
+      <c r="G21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="17" t="str">
+        <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C20),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D20)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C20),".","_")),"")</f>
+        <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhsrn_cg.cp_rd_toggle
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhsrn_cg.cp_rs1_toggle
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhsrn_cg.cp_rs2_toggle</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="D22" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>52</v>
-      </c>
       <c r="E22" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="17" t="str">
+        <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C22),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D22)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C22),".","_")),"")</f>
+        <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macun_cg.cp_rs1
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macun_cg.cp_gpr_hazard[RAW_HAZARD]
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macun_cg.cp_rd
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macun_cg.cp_rs2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="11" t="s">
+      <c r="F23" s="20"/>
+      <c r="G23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="17" t="str">
+        <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C22),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D22)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C22),".","_")),"")</f>
+        <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macun_cg.cp_rd_toggle
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macun_cg.cp_rs1_toggle
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macun_cg.cp_rs2_toggle</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>54</v>
-      </c>
       <c r="E24" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="17" t="str">
+        <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C24),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D24)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C24),".","_")),"")</f>
+        <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhun_cg.cp_rs1
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhun_cg.cp_gpr_hazard[RAW_HAZARD]
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhun_cg.cp_rd
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhun_cg.cp_rs2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="11" t="s">
+      <c r="F25" s="20"/>
+      <c r="G25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="17" t="str">
+        <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C24),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D24)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C24),".","_")),"")</f>
+        <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhun_cg.cp_rd_toggle
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhun_cg.cp_rs1_toggle
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhun_cg.cp_rs2_toggle</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>56</v>
-      </c>
       <c r="E26" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="17" t="str">
+        <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C26),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D26)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C26),".","_")),"")</f>
+        <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macsn_cg.cp_rs1
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macsn_cg.cp_gpr_hazard[RAW_HAZARD]
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macsn_cg.cp_rd
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macsn_cg.cp_rs2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="11" t="s">
+      <c r="F27" s="20"/>
+      <c r="G27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="17" t="str">
+        <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C26),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D26)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C26),".","_")),"")</f>
+        <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macsn_cg.cp_rd_toggle
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macsn_cg.cp_rs1_toggle
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macsn_cg.cp_rs2_toggle</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>58</v>
-      </c>
       <c r="E28" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="17" t="str">
+        <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C28),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D28)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C28),".","_")),"")</f>
+        <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhsn_cg.cp_rs1
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhsn_cg.cp_gpr_hazard[RAW_HAZARD]
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhsn_cg.cp_rd
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhsn_cg.cp_rs2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>61</v>
+      <c r="F29" s="20"/>
+      <c r="G29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="17" t="str">
+        <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C28),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D28)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C28),".","_")),"")</f>
+        <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhsn_cg.cp_rd_toggle
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhsn_cg.cp_rs1_toggle
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhsn_cg.cp_rs2_toggle</v>
+      </c>
+      <c r="K29" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>60</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="17" t="str">
+        <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C30),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D30)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C30),".","_")),"")</f>
+        <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macurn_cg.cp_rs1
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macurn_cg.cp_gpr_hazard[RAW_HAZARD]
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macurn_cg.cp_rd
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macurn_cg.cp_rs2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="20"/>
       <c r="E31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>62</v>
+      <c r="F31" s="20"/>
+      <c r="G31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="17" t="str">
+        <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C30),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D30)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C30),".","_")),"")</f>
+        <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macurn_cg.cp_rd_toggle
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macurn_cg.cp_rs1_toggle
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macurn_cg.cp_rs2_toggle</v>
+      </c>
+      <c r="K31" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="17" t="str">
+        <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C32),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D32)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C32),".","_")),"")</f>
+        <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhurn_cg.cp_rs1
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhurn_cg.cp_gpr_hazard[RAW_HAZARD]
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhurn_cg.cp_rd
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhurn_cg.cp_rs2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="20"/>
       <c r="E33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="12" t="s">
+      <c r="F33" s="20"/>
+      <c r="G33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="17" t="str">
+        <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C32),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D32)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C32),".","_")),"")</f>
+        <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhurn_cg.cp_rd_toggle
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhurn_cg.cp_rs1_toggle
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhurn_cg.cp_rs2_toggle</v>
+      </c>
+      <c r="K33" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
+      <c r="F34" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="17" t="str">
+        <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C34),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D34)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C34),".","_")),"")</f>
+        <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macsrn_cg.cp_rs1
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macsrn_cg.cp_gpr_hazard[RAW_HAZARD]
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macsrn_cg.cp_rd
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macsrn_cg.cp_rs2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="20"/>
       <c r="E35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="11" t="s">
+      <c r="F35" s="20"/>
+      <c r="G35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="17" t="str">
+        <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C34),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D34)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C34),".","_")),"")</f>
+        <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macsrn_cg.cp_rd_toggle
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macsrn_cg.cp_rs1_toggle
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macsrn_cg.cp_rs2_toggle</v>
+      </c>
+      <c r="K35" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="12" t="s">
-        <v>65</v>
-      </c>
       <c r="E36" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="17" t="str">
+        <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C36),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D36)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C36),".","_")),"")</f>
+        <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhsrn_cg.cp_rs1
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhsrn_cg.cp_gpr_hazard[RAW_HAZARD]
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhsrn_cg.cp_rd
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhsrn_cg.cp_rs2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="20"/>
       <c r="E37" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15"/>
-      <c r="I42" s="17"/>
-    </row>
-    <row r="43" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+      <c r="F37" s="20"/>
+      <c r="G37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" s="17" t="str">
+        <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C36),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D36)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C36),".","_")),"")</f>
+        <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhsrn_cg.cp_rd_toggle
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhsrn_cg.cp_rs1_toggle
+CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhsrn_cg.cp_rs2_toggle</v>
+      </c>
+      <c r="K37" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="J42" s="13"/>
+    </row>
+    <row r="43" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="J43" s="13"/>
+    </row>
+    <row r="44" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="11"/>
+      <c r="J44" s="13"/>
+    </row>
+    <row r="45" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="I43" s="17"/>
-    </row>
-    <row r="44" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="15"/>
-      <c r="I44" s="17"/>
-    </row>
-    <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
+      <c r="E45" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="F45" s="15"/>
+      <c r="G45" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="18" t="s">
+    </row>
+    <row r="46" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D46" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E46" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" s="15"/>
+      <c r="G46" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="F45" s="18" t="s">
+      <c r="D47" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" s="15"/>
+      <c r="G47" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G45" s="18" t="s">
+      <c r="H47" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H45" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B46" s="18" t="s">
+      <c r="I47" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="18" t="s">
+    </row>
+    <row r="48" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48" s="15"/>
+      <c r="G48" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F49" s="15"/>
+      <c r="G49" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50" s="15"/>
+      <c r="G50" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F51" s="16"/>
+      <c r="G51" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52" s="15"/>
+      <c r="G52" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F46" s="18" t="s">
+      <c r="F53" s="15"/>
+      <c r="G53" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="H53" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H46" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B47" s="18" t="s">
+      <c r="I53" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47" s="19" t="s">
+    </row>
+    <row r="54" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E54" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E47" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F47" s="18" t="s">
+      <c r="F54" s="15"/>
+      <c r="G54" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G47" s="18" t="s">
+      <c r="H54" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H47" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48" s="18" t="s">
+      <c r="I54" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="F48" s="18" t="s">
+    </row>
+    <row r="55" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F55" s="15"/>
+      <c r="G55" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="18" t="s">
+      <c r="H55" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H48" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" s="18" t="s">
+      <c r="I55" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="F49" s="18" t="s">
+    </row>
+    <row r="56" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" s="15"/>
+      <c r="G56" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G49" s="18" t="s">
+      <c r="H56" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H49" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B50" s="18" t="s">
+      <c r="I56" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C50" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="F50" s="18" t="s">
+    </row>
+    <row r="57" spans="1:9" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F57" s="16"/>
+      <c r="G57" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="18" t="s">
+      <c r="H57" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H50" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B51" s="18" t="s">
+      <c r="I57" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="E51" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="F51" s="18" t="s">
+    </row>
+    <row r="58" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" s="15"/>
+      <c r="G58" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G51" s="18" t="s">
+      <c r="H58" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H51" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B52" s="18" t="s">
+      <c r="I58" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="F52" s="18" t="s">
+    </row>
+    <row r="59" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F59" s="15"/>
+      <c r="G59" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G52" s="18" t="s">
+      <c r="H59" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H52" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B53" s="18" t="s">
+      <c r="I59" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F53" s="18" t="s">
+    </row>
+    <row r="60" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" s="15"/>
+      <c r="G60" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G53" s="18" t="s">
+      <c r="H60" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H53" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B54" s="18" t="s">
+      <c r="I60" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C54" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="F54" s="18" t="s">
+    </row>
+    <row r="61" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F61" s="15"/>
+      <c r="G61" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G54" s="18" t="s">
+      <c r="H61" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H54" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B55" s="18" t="s">
+      <c r="I61" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C55" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D55" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="F55" s="18" t="s">
+    </row>
+    <row r="62" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F62" s="15"/>
+      <c r="G62" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G55" s="18" t="s">
+      <c r="H62" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H55" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B56" s="18" t="s">
+      <c r="I62" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C56" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="F56" s="18" t="s">
+    </row>
+    <row r="63" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F63" s="15"/>
+      <c r="G63" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G56" s="18" t="s">
+      <c r="H63" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H56" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="73.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B57" s="18" t="s">
+      <c r="I63" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C57" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="F57" s="18" t="s">
+    </row>
+    <row r="64" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F64" s="15"/>
+      <c r="G64" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G57" s="18" t="s">
+      <c r="H64" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H57" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A58" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B58" s="18" t="s">
+      <c r="I64" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C58" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D58" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="F58" s="18" t="s">
+    </row>
+    <row r="65" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F65" s="15"/>
+      <c r="G65" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G58" s="18" t="s">
+      <c r="H65" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H58" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B59" s="18" t="s">
+      <c r="I65" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="F59" s="18" t="s">
+    </row>
+    <row r="66" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F66" s="15"/>
+      <c r="G66" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G59" s="18" t="s">
+      <c r="H66" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H59" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A60" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B60" s="18" t="s">
+      <c r="I66" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C60" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="F60" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G60" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H60" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D61" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="E61" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="F61" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G61" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H61" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A62" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B62" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="D62" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="E62" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="F62" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H62" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A63" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B63" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="F63" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H63" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A64" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="E64" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="F64" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G64" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H64" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B65" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E65" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="F65" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G65" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H65" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A66" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="E66" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="F66" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G66" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H66" s="18" t="s">
-        <v>80</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="60">
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B21"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A21"/>
+    <mergeCell ref="A22:A37"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="D34:D35"/>
     <mergeCell ref="C36:C37"/>
@@ -2631,35 +3109,8 @@
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B21"/>
-    <mergeCell ref="C30:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2668,15 +3119,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:E10"/>
+  <dimension ref="A2:E18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="59.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.140625" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" customWidth="1"/>
   </cols>
@@ -2768,6 +3219,26 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2786,34 +3257,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="51aa521f-7cbd-47c5-afee-4a8147a04eed">
-      <UserInfo>
-        <DisplayName>Pascal Gouedo</DisplayName>
-        <AccountId>15</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Yoann Pruvost</DisplayName>
-        <AccountId>14</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Xavier Aubert</DisplayName>
-        <AccountId>60</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cbd820e2-9c8a-4c01-9a9c-6b4c26777899">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="51aa521f-7cbd-47c5-afee-4a8147a04eed" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EFCF9BE3DDC69D46817A851BEC5550B1" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="6f429ff05de3a495de36a912eeee1367">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cbd820e2-9c8a-4c01-9a9c-6b4c26777899" xmlns:ns3="51aa521f-7cbd-47c5-afee-4a8147a04eed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8dba9ee4a9862521e056f2186065b8ec" ns2:_="" ns3:_="">
     <xsd:import namespace="cbd820e2-9c8a-4c01-9a9c-6b4c26777899"/>
@@ -3044,6 +3487,34 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="51aa521f-7cbd-47c5-afee-4a8147a04eed">
+      <UserInfo>
+        <DisplayName>Pascal Gouedo</DisplayName>
+        <AccountId>15</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Yoann Pruvost</DisplayName>
+        <AccountId>14</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Xavier Aubert</DisplayName>
+        <AccountId>60</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cbd820e2-9c8a-4c01-9a9c-6b4c26777899">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="51aa521f-7cbd-47c5-afee-4a8147a04eed" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{434F60D4-0833-4421-9009-A84D0EA022BE}">
   <ds:schemaRefs>
@@ -3053,17 +3524,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{265E7B87-EAD2-4908-A44E-19B379CBD049}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="51aa521f-7cbd-47c5-afee-4a8147a04eed"/>
-    <ds:schemaRef ds:uri="cbd820e2-9c8a-4c01-9a9c-6b4c26777899"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A798B716-2394-4866-BFC3-419DD59F0791}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3080,4 +3540,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{265E7B87-EAD2-4908-A44E-19B379CBD049}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="51aa521f-7cbd-47c5-afee-4a8147a04eed"/>
+    <ds:schemaRef ds:uri="cbd820e2-9c8a-4c01-9a9c-6b4c26777899"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/cv32e40p/docs/VerifPlans/Simulation/xpulp_instruction_extensions/CV32E40P_xpulp-multiply-accumulate.xlsx
+++ b/cv32e40p/docs/VerifPlans/Simulation/xpulp_instruction_extensions/CV32E40P_xpulp-multiply-accumulate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Simulation - Copie\xpulp_instruction_extensions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\git_repos\corev-v-verif\cv32e40p\docs\VerifPlans\Simulation\xpulp_instruction_extensions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306236DF-75B4-4135-9C61-5A9E045BF37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51661D43-2F74-49B8-9771-2027BD8EF5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="5250" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21810" yWindow="4530" windowWidth="19890" windowHeight="14025" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="155">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -663,9 +663,6 @@
     <t>CG: RISCV_coverage_pkg.RISCV_coverage__1.INSTR_cg.cp_rs2_toggle</t>
   </si>
   <si>
-    <t>Related Test Program(s)</t>
-  </si>
-  <si>
     <t>corev_rand_pulp_instr_test
 corev_rand_pulp_mac_instr_test
 pulp_multiply_accumulate</t>
@@ -699,6 +696,18 @@
   </si>
   <si>
     <t>Toggle is not a requirement of CV32E40Pv2 verification, but the corresponding coverage from the Reference Model Coverage Package exists and is given for reference purposes only.</t>
+  </si>
+  <si>
+    <t>Test-Program(s) Name(s)</t>
+  </si>
+  <si>
+    <t>Test-Program Type</t>
+  </si>
+  <si>
+    <t>UVM Test Config</t>
+  </si>
+  <si>
+    <t>see CV32E40Pv2_test_list.xlsx</t>
   </si>
 </sst>
 </file>
@@ -864,10 +873,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1266,12 +1275,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1287,12 +1296,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,18 +1310,18 @@
     <col min="2" max="3" width="20.28515625" style="8" customWidth="1"/>
     <col min="4" max="4" width="51.28515625" style="9" customWidth="1"/>
     <col min="5" max="5" width="41.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="51.28515625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="8" customWidth="1"/>
+    <col min="7" max="8" width="18.42578125" style="8" customWidth="1"/>
     <col min="9" max="9" width="22.85546875" style="8" customWidth="1"/>
-    <col min="10" max="10" width="77.140625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="67.85546875" style="8" customWidth="1"/>
-    <col min="12" max="1024" width="17" style="8"/>
-    <col min="1025" max="1025" width="9.140625" style="8" customWidth="1"/>
-    <col min="1026" max="16384" width="17" style="8"/>
+    <col min="10" max="10" width="51.28515625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="77.140625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="67.85546875" style="8" customWidth="1"/>
+    <col min="13" max="1025" width="17" style="8"/>
+    <col min="1026" max="1026" width="9.140625" style="8" customWidth="1"/>
+    <col min="1027" max="16384" width="17" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1329,32 +1338,35 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>141</v>
+        <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>6</v>
+        <v>152</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="L1" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="22" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="20" t="s">
@@ -1363,19 +1375,22 @@
       <c r="E2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="17" t="str">
+      <c r="J2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="17" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C2),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D2)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C2),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mac_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mac_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -1383,38 +1398,43 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mac_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="20"/>
       <c r="E3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="17" t="str">
+      <c r="J3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K3" s="17" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C2),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D2)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C2),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mac_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mac_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mac_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K3" s="18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="L3" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A4" s="20"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="22" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="20" t="s">
@@ -1423,19 +1443,22 @@
       <c r="E4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="17" t="str">
+      <c r="J4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K4" s="17" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C4),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D4)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C4),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_msu_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_msu_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -1443,42 +1466,47 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_msu_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="20"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="20"/>
       <c r="E5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="17" t="str">
+      <c r="J5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K5" s="17" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C4),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D4)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C4),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_msu_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_msu_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_msu_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K5" s="18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="L5" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="20" t="s">
@@ -1487,19 +1515,22 @@
       <c r="E6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="17" t="str">
+      <c r="J6" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K6" s="17" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C6),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D6)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C6),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulun_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulun_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -1507,38 +1538,43 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulun_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="20"/>
       <c r="E7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="17" t="str">
+      <c r="J7" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" s="17" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C6),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D6)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C6),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulun_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulun_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulun_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K7" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="L7" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="21" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="22" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="20" t="s">
@@ -1547,19 +1583,22 @@
       <c r="E8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="17" t="str">
+      <c r="J8" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K8" s="17" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C8),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D8)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C8),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhun_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhun_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -1567,38 +1606,43 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhun_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="20"/>
       <c r="E9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="17" t="str">
+      <c r="J9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K9" s="17" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C8),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D8)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C8),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhun_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhun_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhun_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K9" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="L9" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="22" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="20" t="s">
@@ -1607,19 +1651,22 @@
       <c r="E10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="17" t="str">
+      <c r="J10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K10" s="17" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C10),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D10)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C10),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulsn_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulsn_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -1627,38 +1674,43 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulsn_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="20"/>
       <c r="E11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="17" t="str">
+      <c r="J11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K11" s="17" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C10),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D10)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C10),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulsn_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulsn_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulsn_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K11" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="L11" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="22" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="20" t="s">
@@ -1667,19 +1719,22 @@
       <c r="E12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="17" t="str">
+      <c r="J12" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K12" s="17" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C12),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D12)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C12),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhsn_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhsn_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -1687,38 +1742,43 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhsn_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="20"/>
       <c r="E13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="17" t="str">
+      <c r="J13" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" s="17" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C12),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D12)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C12),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhsn_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhsn_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhsn_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K13" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="L13" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="21" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="22" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="20" t="s">
@@ -1727,19 +1787,22 @@
       <c r="E14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="17" t="str">
+      <c r="J14" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" s="17" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C14),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D14)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C14),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulurn_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulurn_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -1747,38 +1810,43 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulurn_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="20"/>
       <c r="E15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="17" t="str">
+      <c r="J15" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" s="17" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C14),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D14)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C14),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulurn_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulurn_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulurn_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K15" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="L15" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="21" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="22" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="20" t="s">
@@ -1787,19 +1855,22 @@
       <c r="E16" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="17" t="str">
+      <c r="J16" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" s="17" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C16),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D16)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C16),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhurn_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhurn_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -1807,38 +1878,43 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhurn_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="20"/>
       <c r="E17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="17" t="str">
+      <c r="J17" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K17" s="17" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C16),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D16)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C16),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhurn_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhurn_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhurn_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K17" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="L17" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="21" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="22" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="20" t="s">
@@ -1847,19 +1923,22 @@
       <c r="E18" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="17" t="str">
+      <c r="J18" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K18" s="17" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C18),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D18)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C18),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulsrn_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulsrn_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -1867,38 +1946,43 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulsrn_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="20"/>
       <c r="E19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="17" t="str">
+      <c r="J19" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K19" s="17" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C18),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D18)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C18),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulsrn_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulsrn_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulsrn_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K19" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="L19" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="22" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="20" t="s">
@@ -1907,19 +1991,22 @@
       <c r="E20" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="17" t="str">
+      <c r="J20" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K20" s="17" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C20),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D20)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C20),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhsrn_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhsrn_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -1927,42 +2014,47 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhsrn_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="20"/>
       <c r="E21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="17" t="str">
+      <c r="J21" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K21" s="17" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C20),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D20)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C20),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhsrn_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhsrn_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_mulhhsrn_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K21" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="L21" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="22" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="20" t="s">
@@ -1971,19 +2063,22 @@
       <c r="E22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J22" s="17" t="str">
+      <c r="J22" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K22" s="17" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C22),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D22)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C22),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macun_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macun_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -1991,38 +2086,43 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macun_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="20"/>
       <c r="E23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J23" s="17" t="str">
+      <c r="J23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K23" s="17" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C22),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D22)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C22),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macun_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macun_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macun_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K23" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="L23" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="22" t="s">
         <v>52</v>
       </c>
       <c r="D24" s="20" t="s">
@@ -2031,19 +2131,22 @@
       <c r="E24" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="17" t="str">
+      <c r="J24" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K24" s="17" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C24),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D24)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C24),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhun_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhun_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -2051,38 +2154,43 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhun_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="20"/>
       <c r="E25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J25" s="17" t="str">
+      <c r="J25" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K25" s="17" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C24),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D24)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C24),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhun_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhun_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhun_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K25" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="L25" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="22" t="s">
         <v>54</v>
       </c>
       <c r="D26" s="20" t="s">
@@ -2091,19 +2199,22 @@
       <c r="E26" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J26" s="17" t="str">
+      <c r="J26" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K26" s="17" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C26),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D26)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C26),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macsn_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macsn_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -2111,38 +2222,43 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macsn_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
       <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="20"/>
       <c r="E27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J27" s="17" t="str">
+      <c r="J27" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K27" s="17" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C26),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D26)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C26),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macsn_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macsn_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macsn_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K27" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="L27" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
       <c r="B28" s="20"/>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D28" s="20" t="s">
@@ -2151,19 +2267,22 @@
       <c r="E28" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="G28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J28" s="17" t="str">
+      <c r="J28" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K28" s="17" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C28),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D28)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C28),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhsn_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhsn_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -2171,38 +2290,43 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhsn_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
       <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="20"/>
       <c r="E29" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J29" s="17" t="str">
+      <c r="J29" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K29" s="17" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C28),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D28)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C28),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhsn_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhsn_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhsn_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K29" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="L29" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="22" t="s">
         <v>58</v>
       </c>
       <c r="D30" s="20" t="s">
@@ -2211,19 +2335,22 @@
       <c r="E30" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="G30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J30" s="17" t="str">
+      <c r="J30" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K30" s="17" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C30),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D30)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C30),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macurn_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macurn_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -2231,38 +2358,43 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macurn_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
-      <c r="C31" s="21"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="20"/>
       <c r="E31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J31" s="17" t="str">
+      <c r="J31" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K31" s="17" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C30),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D30)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C30),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macurn_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macurn_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macurn_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K31" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="L31" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D32" s="20" t="s">
@@ -2271,19 +2403,22 @@
       <c r="E32" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="G32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J32" s="17" t="str">
+      <c r="J32" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K32" s="17" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C32),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D32)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C32),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhurn_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhurn_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -2291,38 +2426,43 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhurn_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
-      <c r="C33" s="21"/>
+      <c r="C33" s="22"/>
       <c r="D33" s="20"/>
       <c r="E33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J33" s="17" t="str">
+      <c r="J33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K33" s="17" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C32),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D32)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C32),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhurn_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhurn_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhurn_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K33" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="L33" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D34" s="20" t="s">
@@ -2331,19 +2471,22 @@
       <c r="E34" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F34" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="G34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J34" s="17" t="str">
+      <c r="J34" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K34" s="17" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C34),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D34)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C34),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macsrn_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macsrn_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -2351,38 +2494,43 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macsrn_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
-      <c r="C35" s="21"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="20"/>
       <c r="E35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J35" s="17" t="str">
+      <c r="J35" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K35" s="17" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C34),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D34)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C34),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macsrn_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macsrn_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_macsrn_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K35" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="L35" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D36" s="20" t="s">
@@ -2391,19 +2539,22 @@
       <c r="E36" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F36" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="G36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J36" s="17" t="str">
+      <c r="J36" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K36" s="17" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C36),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D36)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C36),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhsrn_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhsrn_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -2411,51 +2562,56 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhsrn_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
-      <c r="C37" s="21"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="20"/>
       <c r="E37" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="20"/>
-      <c r="G37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="G37" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J37" s="17" t="str">
+      <c r="J37" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K37" s="17" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C36),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D36)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C36),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhsrn_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhsrn_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_machhsrn_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K37" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L37" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
-      <c r="J42" s="13"/>
-    </row>
-    <row r="43" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K42" s="13"/>
+    </row>
+    <row r="43" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>70</v>
       </c>
       <c r="B43" s="11"/>
-      <c r="J43" s="13"/>
-    </row>
-    <row r="44" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K43" s="13"/>
+    </row>
+    <row r="44" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="11"/>
-      <c r="J44" s="13"/>
-    </row>
-    <row r="45" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="K44" s="13"/>
+    </row>
+    <row r="45" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>71</v>
       </c>
@@ -2471,18 +2627,19 @@
       <c r="E45" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F45" s="15"/>
+      <c r="F45" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="G45" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H45" s="14" t="s">
         <v>16</v>
       </c>
+      <c r="H45" s="14"/>
       <c r="I45" s="14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J45" s="15"/>
+    </row>
+    <row r="46" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>71</v>
       </c>
@@ -2498,18 +2655,19 @@
       <c r="E46" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F46" s="15"/>
+      <c r="F46" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="G46" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H46" s="14" t="s">
         <v>16</v>
       </c>
+      <c r="H46" s="14"/>
       <c r="I46" s="14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="J46" s="15"/>
+    </row>
+    <row r="47" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>71</v>
       </c>
@@ -2525,18 +2683,19 @@
       <c r="E47" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F47" s="15"/>
+      <c r="F47" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="G47" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H47" s="14" t="s">
         <v>16</v>
       </c>
+      <c r="H47" s="14"/>
       <c r="I47" s="14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="J47" s="15"/>
+    </row>
+    <row r="48" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>71</v>
       </c>
@@ -2552,18 +2711,19 @@
       <c r="E48" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F48" s="15"/>
+      <c r="F48" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="G48" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H48" s="14" t="s">
         <v>16</v>
       </c>
+      <c r="H48" s="14"/>
       <c r="I48" s="14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J48" s="15"/>
+    </row>
+    <row r="49" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>71</v>
       </c>
@@ -2579,18 +2739,19 @@
       <c r="E49" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F49" s="15"/>
+      <c r="F49" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="G49" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H49" s="14" t="s">
         <v>16</v>
       </c>
+      <c r="H49" s="14"/>
       <c r="I49" s="14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J49" s="15"/>
+    </row>
+    <row r="50" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>71</v>
       </c>
@@ -2606,18 +2767,19 @@
       <c r="E50" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="F50" s="15"/>
+      <c r="F50" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="G50" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H50" s="14" t="s">
         <v>16</v>
       </c>
+      <c r="H50" s="14"/>
       <c r="I50" s="14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="J50" s="15"/>
+    </row>
+    <row r="51" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>71</v>
       </c>
@@ -2633,18 +2795,19 @@
       <c r="E51" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F51" s="16"/>
+      <c r="F51" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="G51" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H51" s="14" t="s">
         <v>16</v>
       </c>
+      <c r="H51" s="14"/>
       <c r="I51" s="14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="J51" s="16"/>
+    </row>
+    <row r="52" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>71</v>
       </c>
@@ -2660,18 +2823,19 @@
       <c r="E52" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="F52" s="15"/>
+      <c r="F52" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="G52" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H52" s="14" t="s">
         <v>16</v>
       </c>
+      <c r="H52" s="14"/>
       <c r="I52" s="14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J52" s="15"/>
+    </row>
+    <row r="53" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>71</v>
       </c>
@@ -2687,18 +2851,19 @@
       <c r="E53" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F53" s="15"/>
+      <c r="F53" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="G53" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H53" s="14" t="s">
         <v>16</v>
       </c>
+      <c r="H53" s="14"/>
       <c r="I53" s="14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J53" s="15"/>
+    </row>
+    <row r="54" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>71</v>
       </c>
@@ -2714,18 +2879,19 @@
       <c r="E54" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F54" s="15"/>
+      <c r="F54" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="G54" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H54" s="14" t="s">
         <v>16</v>
       </c>
+      <c r="H54" s="14"/>
       <c r="I54" s="14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J54" s="15"/>
+    </row>
+    <row r="55" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>71</v>
       </c>
@@ -2741,18 +2907,19 @@
       <c r="E55" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="F55" s="15"/>
+      <c r="F55" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="G55" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H55" s="14" t="s">
         <v>16</v>
       </c>
+      <c r="H55" s="14"/>
       <c r="I55" s="14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J55" s="15"/>
+    </row>
+    <row r="56" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>71</v>
       </c>
@@ -2768,18 +2935,19 @@
       <c r="E56" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="F56" s="15"/>
+      <c r="F56" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="G56" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H56" s="14" t="s">
         <v>16</v>
       </c>
+      <c r="H56" s="14"/>
       <c r="I56" s="14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="J56" s="15"/>
+    </row>
+    <row r="57" spans="1:10" ht="73.5" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
         <v>71</v>
       </c>
@@ -2795,18 +2963,19 @@
       <c r="E57" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="F57" s="16"/>
+      <c r="F57" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="G57" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H57" s="14" t="s">
         <v>16</v>
       </c>
+      <c r="H57" s="14"/>
       <c r="I57" s="14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="J57" s="16"/>
+    </row>
+    <row r="58" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
         <v>71</v>
       </c>
@@ -2822,18 +2991,19 @@
       <c r="E58" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="F58" s="15"/>
+      <c r="F58" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="G58" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H58" s="14" t="s">
         <v>16</v>
       </c>
+      <c r="H58" s="14"/>
       <c r="I58" s="14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J58" s="15"/>
+    </row>
+    <row r="59" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
         <v>71</v>
       </c>
@@ -2849,18 +3019,19 @@
       <c r="E59" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F59" s="15"/>
+      <c r="F59" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="G59" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H59" s="14" t="s">
         <v>16</v>
       </c>
+      <c r="H59" s="14"/>
       <c r="I59" s="14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J59" s="15"/>
+    </row>
+    <row r="60" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
         <v>71</v>
       </c>
@@ -2876,18 +3047,19 @@
       <c r="E60" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="F60" s="15"/>
+      <c r="F60" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="G60" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H60" s="14" t="s">
         <v>16</v>
       </c>
+      <c r="H60" s="14"/>
       <c r="I60" s="14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="J60" s="15"/>
+    </row>
+    <row r="61" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
         <v>71</v>
       </c>
@@ -2903,18 +3075,19 @@
       <c r="E61" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="F61" s="15"/>
+      <c r="F61" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="G61" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H61" s="14" t="s">
         <v>16</v>
       </c>
+      <c r="H61" s="14"/>
       <c r="I61" s="14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="J61" s="15"/>
+    </row>
+    <row r="62" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
         <v>71</v>
       </c>
@@ -2930,18 +3103,19 @@
       <c r="E62" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="F62" s="15"/>
+      <c r="F62" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="G62" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H62" s="14" t="s">
         <v>16</v>
       </c>
+      <c r="H62" s="14"/>
       <c r="I62" s="14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J62" s="15"/>
+    </row>
+    <row r="63" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
         <v>71</v>
       </c>
@@ -2957,18 +3131,19 @@
       <c r="E63" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="F63" s="15"/>
+      <c r="F63" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="G63" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H63" s="14" t="s">
         <v>16</v>
       </c>
+      <c r="H63" s="14"/>
       <c r="I63" s="14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J63" s="15"/>
+    </row>
+    <row r="64" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
         <v>71</v>
       </c>
@@ -2984,18 +3159,19 @@
       <c r="E64" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="F64" s="15"/>
+      <c r="F64" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="G64" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H64" s="14" t="s">
         <v>16</v>
       </c>
+      <c r="H64" s="14"/>
       <c r="I64" s="14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J64" s="15"/>
+    </row>
+    <row r="65" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
         <v>71</v>
       </c>
@@ -3011,18 +3187,19 @@
       <c r="E65" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="F65" s="15"/>
+      <c r="F65" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="G65" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H65" s="14" t="s">
         <v>16</v>
       </c>
+      <c r="H65" s="14"/>
       <c r="I65" s="14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J65" s="15"/>
+    </row>
+    <row r="66" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
         <v>71</v>
       </c>
@@ -3038,37 +3215,46 @@
       <c r="E66" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="F66" s="15"/>
+      <c r="F66" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="G66" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H66" s="14" t="s">
         <v>16</v>
       </c>
+      <c r="H66" s="14"/>
       <c r="I66" s="14" t="s">
         <v>76</v>
       </c>
+      <c r="J66" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
+  <mergeCells count="42">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A21"/>
+    <mergeCell ref="A22:A37"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="B22:B37"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B21"/>
     <mergeCell ref="C30:C31"/>
@@ -3085,32 +3271,6 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A21"/>
-    <mergeCell ref="A22:A37"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="B22:B37"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C32:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3248,12 +3408,31 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="51aa521f-7cbd-47c5-afee-4a8147a04eed">
+      <UserInfo>
+        <DisplayName>Pascal Gouedo</DisplayName>
+        <AccountId>15</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Yoann Pruvost</DisplayName>
+        <AccountId>14</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Xavier Aubert</DisplayName>
+        <AccountId>60</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cbd820e2-9c8a-4c01-9a9c-6b4c26777899">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="51aa521f-7cbd-47c5-afee-4a8147a04eed" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3488,37 +3667,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="51aa521f-7cbd-47c5-afee-4a8147a04eed">
-      <UserInfo>
-        <DisplayName>Pascal Gouedo</DisplayName>
-        <AccountId>15</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Yoann Pruvost</DisplayName>
-        <AccountId>14</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Xavier Aubert</DisplayName>
-        <AccountId>60</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cbd820e2-9c8a-4c01-9a9c-6b4c26777899">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="51aa521f-7cbd-47c5-afee-4a8147a04eed" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{434F60D4-0833-4421-9009-A84D0EA022BE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{265E7B87-EAD2-4908-A44E-19B379CBD049}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="51aa521f-7cbd-47c5-afee-4a8147a04eed"/>
+    <ds:schemaRef ds:uri="cbd820e2-9c8a-4c01-9a9c-6b4c26777899"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3543,12 +3706,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{265E7B87-EAD2-4908-A44E-19B379CBD049}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{434F60D4-0833-4421-9009-A84D0EA022BE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="51aa521f-7cbd-47c5-afee-4a8147a04eed"/>
-    <ds:schemaRef ds:uri="cbd820e2-9c8a-4c01-9a9c-6b4c26777899"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>